--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5191,4 +5192,3176 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>190.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>135.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8730</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0685</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0173</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8965</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5240</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3826</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8364,4 +8365,2188 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10549,4 +10550,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10558,7 +10559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10569,17 +10570,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10589,14 +10610,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.19</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -10605,14 +10648,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.35</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -10621,14 +10686,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.01</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -10637,13 +10724,2317 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6307</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12933,7 +12934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12944,17 +12945,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12964,14 +12985,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.38</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -12980,14 +13023,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.19</v>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -12996,14 +13061,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.35</v>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -13012,14 +13099,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.01</v>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -13028,13 +13137,1345 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14358,7 +14359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14369,17 +14370,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14389,14 +14410,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.58</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -14405,14 +14448,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.38</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -14421,14 +14486,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.19</v>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -14437,14 +14524,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.35</v>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -14453,14 +14562,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>73</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.01</v>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -14469,13 +14600,2003 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>28.38</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>22.19</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>40.35</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>23.01</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.86</v>
       </c>
     </row>
@@ -600,6 +617,1690 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000414</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014216</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +4404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4127,7 +5828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6501,7 +8202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8685,7 +10386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11857,7 +13558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14687,7 +16388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002791-坚朗五金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>7.68</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>6.58</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>28.38</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>22.19</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>40.35</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>23.01</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1948 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>49</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8644</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5560</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004353</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实新添华定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2552,1802 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1517</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2300,7 +6031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4404,7 +8135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5828,7 +9559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8202,7 +11933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10386,7 +14117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13558,7 +17289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16386,1922 +20117,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000991</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3560</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1088</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009847</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9626</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9305</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8644</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6948</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010064</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>37.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6464</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>60.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5560</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4314</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>270028</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发制造业精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4264</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004148</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>圆信永丰多策略精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3894</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008311</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>圆信永丰优选价值混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3576</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501051</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>圆信永丰汇利混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2846</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008811</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华科技创新混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2723</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519673</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银河康乐股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1821</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006615</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>77.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1807</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009055</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1254</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006969</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>圆信永丰高端制造混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0991</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001755</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实新思路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>25.95</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006616</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>77.66</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0550</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003004</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商睿祥定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>50.61</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010065</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009056</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007266</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实新添益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005088</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>011473</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>60.82</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004353</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>嘉实新添华定期开放混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009848</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>96.11</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>008312</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>圆信永丰优选价值混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004916</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>嘉实新添丰定期开放混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>39.64</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>010023</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>广发制造业精选混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005089</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007267</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>嘉实新添益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>